--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556F773-68BB-C243-95E8-F9342AA85F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACB45A-E816-E044-BCF7-825771ECD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="7" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="49420" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="7" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="827">
   <si>
     <t>Screening</t>
   </si>
@@ -2554,6 +2554,15 @@
   </si>
   <si>
     <t>DOSExx</t>
+  </si>
+  <si>
+    <t>BP_STANDxxx</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -2795,13 +2804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3781,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3792,10 +3801,10 @@
     <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="53.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" customWidth="1"/>
+    <col min="4" max="8" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
@@ -3815,10 +3824,13 @@
         <v>723</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>84</v>
       </c>
@@ -3830,7 +3842,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
@@ -3850,10 +3862,13 @@
         <v>727</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
@@ -3871,8 +3886,11 @@
       <c r="G4" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
@@ -3888,31 +3906,34 @@
         <v>721</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -3923,7 +3944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>742</v>
@@ -3935,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>729</v>
@@ -3947,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>743</v>
@@ -3959,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>730</v>
@@ -3967,22 +3988,22 @@
       <c r="C13" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
@@ -4103,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4735,7 +4756,7 @@
         <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>723</v>
@@ -7963,120 +7984,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>719</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8168,16 +8189,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11800,15 +11821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11817,6 +11829,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12021,14 +12042,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12041,6 +12054,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACB45A-E816-E044-BCF7-825771ECD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA65DA7-E47B-234F-9287-1D05F165CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49420" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="7" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2137,18 +2137,6 @@
     <t>Screen One</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
     <t>StudyPopulation</t>
   </si>
   <si>
@@ -2563,6 +2551,18 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2804,13 +2804,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2830,9 +2830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2870,7 +2870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2976,7 +2976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3118,7 +3118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3313,7 +3313,7 @@
         <v>503</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C17" t="s">
         <v>504</v>
@@ -3336,7 +3336,7 @@
         <v>507</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C18" t="s">
         <v>508</v>
@@ -3792,7 +3792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3809,25 +3809,25 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3847,25 +3847,25 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3897,16 +3897,16 @@
         <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>676</v>
@@ -3947,10 +3947,10 @@
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3959,10 +3959,10 @@
     <row r="11" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3971,10 +3971,10 @@
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3983,10 +3983,10 @@
     <row r="13" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>550</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>542</v>
@@ -4407,7 +4407,7 @@
         <v>564</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>647</v>
@@ -4663,50 +4663,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>538</v>
@@ -4715,57 +4715,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4834,18 +4834,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4986,34 +4986,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C34" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C35" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C36" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C37" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -5067,167 +5067,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>780</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>783</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E2" t="s">
         <v>785</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="49" t="s">
         <v>786</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>787</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>788</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>789</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="J2" t="s">
         <v>790</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>791</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>792</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>793</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>794</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>795</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>796</v>
-      </c>
-      <c r="M2" t="s">
-        <v>797</v>
-      </c>
-      <c r="N2" t="s">
-        <v>798</v>
-      </c>
-      <c r="O2" t="s">
-        <v>799</v>
-      </c>
-      <c r="P2" t="s">
-        <v>800</v>
       </c>
       <c r="Q2" t="s">
         <v>521</v>
       </c>
       <c r="R2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="G3" t="s">
+        <v>787</v>
+      </c>
+      <c r="H3" t="s">
         <v>803</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>789</v>
+      </c>
+      <c r="J3" t="s">
         <v>804</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>805</v>
       </c>
-      <c r="D3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>806</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="G3" t="s">
-        <v>791</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N3" t="s">
+        <v>794</v>
+      </c>
+      <c r="O3" t="s">
+        <v>795</v>
+      </c>
+      <c r="P3" t="s">
         <v>807</v>
-      </c>
-      <c r="I3" t="s">
-        <v>793</v>
-      </c>
-      <c r="J3" t="s">
-        <v>808</v>
-      </c>
-      <c r="K3" t="s">
-        <v>809</v>
-      </c>
-      <c r="L3" t="s">
-        <v>810</v>
-      </c>
-      <c r="M3" t="s">
-        <v>797</v>
-      </c>
-      <c r="N3" t="s">
-        <v>798</v>
-      </c>
-      <c r="O3" t="s">
-        <v>799</v>
-      </c>
-      <c r="P3" t="s">
-        <v>811</v>
       </c>
       <c r="Q3" t="s">
         <v>521</v>
       </c>
       <c r="R3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -5269,13 +5269,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5283,13 +5283,13 @@
         <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>225</v>
@@ -5332,13 +5332,13 @@
         <v>500</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>814</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>818</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>598</v>
@@ -5361,7 +5361,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5899,25 +5899,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +5981,7 @@
         <v>523</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6482,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6519,12 +6519,12 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E4" t="s">
         <v>597</v>
@@ -6538,22 +6538,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E5" t="s">
         <v>569</v>
       </c>
       <c r="F5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G5" t="s">
         <v>500</v>
@@ -6568,8 +6568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6603,7 +6603,7 @@
         <v>498</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>691</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>240</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>242</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>495</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>694</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>251</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6728,7 +6728,7 @@
         <v>253</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>269</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>692</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6818,7 +6818,7 @@
         <v>271</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>693</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6848,7 +6848,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7984,120 +7984,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>719</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8189,16 +8189,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8273,16 +8273,16 @@
         <v>586</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>591</v>
@@ -8293,36 +8293,36 @@
         <v>586</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>718</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -9203,7 +9203,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9258,7 +9258,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9646,7 +9646,7 @@
         <v>636</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9923,7 +9923,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -11821,6 +11821,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11829,15 +11838,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12042,6 +12042,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12054,14 +12062,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA65DA7-E47B-234F-9287-1D05F165CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22549B5D-30A9-1A42-A9FE-532512FEFFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="47420" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="826">
   <si>
     <t>Screening</t>
   </si>
@@ -2439,18 +2439,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -2490,12 +2484,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2563,6 +2551,15 @@
   </si>
   <si>
     <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2804,13 +2801,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3824,7 +3821,7 @@
         <v>719</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>717</v>
@@ -3862,7 +3859,7 @@
         <v>723</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>724</v>
@@ -4262,7 +4259,7 @@
         <v>550</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>542</v>
@@ -4407,7 +4404,7 @@
         <v>564</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>647</v>
@@ -4739,7 +4736,7 @@
         <v>748</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4756,7 +4753,7 @@
         <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>719</v>
@@ -5025,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5126,108 +5123,108 @@
         <v>784</v>
       </c>
       <c r="E2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" t="s">
         <v>786</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I2" t="s">
         <v>787</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>788</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>789</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>790</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>791</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>792</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>793</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>794</v>
-      </c>
-      <c r="O2" t="s">
-        <v>795</v>
-      </c>
-      <c r="P2" t="s">
-        <v>796</v>
       </c>
       <c r="Q2" t="s">
         <v>521</v>
       </c>
       <c r="R2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C3" t="s">
         <v>799</v>
-      </c>
-      <c r="B3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C3" t="s">
-        <v>801</v>
       </c>
       <c r="D3" t="s">
         <v>784</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="G3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H3" t="s">
+        <v>825</v>
+      </c>
+      <c r="I3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L3" t="s">
         <v>802</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>786</v>
-      </c>
-      <c r="G3" t="s">
-        <v>787</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N3" t="s">
+        <v>792</v>
+      </c>
+      <c r="O3" t="s">
+        <v>793</v>
+      </c>
+      <c r="P3" t="s">
         <v>803</v>
-      </c>
-      <c r="I3" t="s">
-        <v>789</v>
-      </c>
-      <c r="J3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K3" t="s">
-        <v>805</v>
-      </c>
-      <c r="L3" t="s">
-        <v>806</v>
-      </c>
-      <c r="M3" t="s">
-        <v>793</v>
-      </c>
-      <c r="N3" t="s">
-        <v>794</v>
-      </c>
-      <c r="O3" t="s">
-        <v>795</v>
-      </c>
-      <c r="P3" t="s">
-        <v>807</v>
       </c>
       <c r="Q3" t="s">
         <v>521</v>
       </c>
       <c r="R3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>225</v>
@@ -5332,13 +5329,13 @@
         <v>500</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>810</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>814</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5346,7 +5343,7 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>598</v>
@@ -5361,7 +5358,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -6482,7 +6479,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6505,7 +6502,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6519,7 +6516,7 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6568,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
@@ -6603,7 +6600,7 @@
         <v>498</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6679,7 +6676,7 @@
         <v>495</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6806,7 +6803,7 @@
         <v>269</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6818,7 +6815,7 @@
         <v>271</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7984,120 +7981,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>715</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8189,16 +8186,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11821,15 +11818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11838,6 +11826,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12042,14 +12039,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12062,6 +12051,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22549B5D-30A9-1A42-A9FE-532512FEFFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1106542-60A1-C543-8F2F-57F02D311313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47420" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="47420" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -202,12 +202,6 @@
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -2560,6 +2554,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2801,13 +2801,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2827,9 +2827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2867,7 +2867,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2973,7 +2973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3115,7 +3115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3142,10 +3142,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3155,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3165,7 +3165,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3185,74 +3185,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3260,20 +3260,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3284,71 +3284,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
         <v>503</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" t="s">
         <v>507</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>508</v>
-      </c>
-      <c r="D18" t="s">
-        <v>509</v>
-      </c>
-      <c r="E18" t="s">
-        <v>510</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3376,24 +3376,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3423,38 +3423,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3481,10 +3481,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3545,7 +3545,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3555,7 +3555,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3565,7 +3565,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3587,7 +3587,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3597,7 +3597,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3607,7 +3607,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3617,10 +3617,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3803,36 +3803,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3841,28 +3841,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3872,62 +3872,62 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3938,16 +3938,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3956,10 @@
     <row r="11" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3968,10 +3968,10 @@
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3980,10 +3980,10 @@
     <row r="13" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>1</v>
@@ -4137,632 +4137,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>531</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4791,19 +4791,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4818,7 +4818,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4831,18 +4831,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4857,40 +4857,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,12 +4900,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,50 +4925,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4978,39 +4978,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C34" t="s">
         <v>738</v>
-      </c>
-      <c r="C34" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C36" t="s">
         <v>739</v>
-      </c>
-      <c r="C36" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C37" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5052,179 +5052,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>778</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>779</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" t="s">
         <v>781</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>782</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>784</v>
       </c>
-      <c r="E2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2" t="s">
         <v>785</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>786</v>
       </c>
-      <c r="H2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>787</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>788</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>789</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>790</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>791</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>792</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R2" t="s">
         <v>793</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>794</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>521</v>
-      </c>
-      <c r="R2" t="s">
-        <v>795</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" t="s">
         <v>797</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H3" t="s">
+        <v>823</v>
+      </c>
+      <c r="I3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J3" t="s">
         <v>798</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>799</v>
       </c>
-      <c r="D3" t="s">
-        <v>784</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>785</v>
-      </c>
-      <c r="G3" t="s">
-        <v>786</v>
-      </c>
-      <c r="H3" t="s">
-        <v>825</v>
-      </c>
-      <c r="I3" t="s">
-        <v>787</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>800</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>789</v>
+      </c>
+      <c r="N3" t="s">
+        <v>790</v>
+      </c>
+      <c r="O3" t="s">
+        <v>791</v>
+      </c>
+      <c r="P3" t="s">
         <v>801</v>
       </c>
-      <c r="L3" t="s">
-        <v>802</v>
-      </c>
-      <c r="M3" t="s">
-        <v>791</v>
-      </c>
-      <c r="N3" t="s">
-        <v>792</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>519</v>
+      </c>
+      <c r="R3" t="s">
         <v>793</v>
       </c>
-      <c r="P3" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>521</v>
-      </c>
-      <c r="R3" t="s">
-        <v>795</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -5249,13 +5249,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5263,30 +5263,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="C2" t="s">
-        <v>762</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="C3" t="s">
-        <v>765</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -5317,25 +5317,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5343,13 +5343,13 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5358,7 +5358,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5374,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5395,34 +5395,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>605</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5432,24 +5432,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>47</v>
+        <v>824</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5462,11 +5462,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5478,19 +5478,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
@@ -5506,10 +5506,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -5522,13 +5522,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5540,28 +5540,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>825</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5569,15 +5569,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5585,14 +5585,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5802,28 +5802,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5854,67 +5854,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -5943,22 +5943,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5966,19 +5966,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -6008,286 +6008,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6316,27 +6316,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6345,94 +6345,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6461,73 +6461,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>595</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>596</v>
       </c>
-      <c r="E2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
       <c r="G2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -6535,25 +6535,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" t="s">
         <v>692</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>693</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
         <v>694</v>
       </c>
-      <c r="D5" t="s">
-        <v>695</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s">
-        <v>696</v>
-      </c>
       <c r="G5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6579,1251 +6579,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7845,34 +7845,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7920,36 +7920,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
         <v>524</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>525</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7979,122 +7979,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+        <v>120</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+        <v>122</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>684</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>715</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8106,96 +8106,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8224,102 +8224,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>701</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>705</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>710</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -8346,82 +8346,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8447,13 +8447,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8461,72 +8461,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8564,69 +8564,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -8682,61 +8682,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8746,121 +8746,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>629</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8869,101 +8869,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -8974,7 +8974,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9090,7 +9090,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -9200,7 +9200,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9255,7 +9255,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9420,7 +9420,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9475,7 +9475,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9530,7 +9530,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9585,7 +9585,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -9640,10 +9640,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9697,7 +9697,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -9752,7 +9752,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -9862,7 +9862,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -9917,10 +9917,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10087,7 +10087,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10141,7 +10141,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -10196,7 +10196,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10251,10 +10251,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10308,7 +10308,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10363,7 +10363,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10420,7 +10420,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10475,7 +10475,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10530,7 +10530,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10585,7 +10585,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11099,24 +11099,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11127,16 +11127,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11146,38 +11146,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11188,7 +11188,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11197,7 +11197,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -11818,6 +11818,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11826,15 +11835,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12039,6 +12039,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12051,14 +12059,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -1,53 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0ED317-CFD7-7A46-B486-9D27457543A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70D5A1-823E-9D49-855D-0FF53B9782E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47420" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="2" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="5" r:id="rId5"/>
-    <sheet name="studyDesignArms" sheetId="6" r:id="rId6"/>
-    <sheet name="studyDesignEpochs" sheetId="7" r:id="rId7"/>
-    <sheet name="mainTimeline" sheetId="8" r:id="rId8"/>
-    <sheet name="adverseEventTimeline" sheetId="9" r:id="rId9"/>
-    <sheet name="earlyTerminationTimeline" sheetId="10" r:id="rId10"/>
-    <sheet name="vsBloodPressure" sheetId="11" r:id="rId11"/>
-    <sheet name="studyDesignTiming" sheetId="12" r:id="rId12"/>
-    <sheet name="studyDesignActivities" sheetId="13" r:id="rId13"/>
-    <sheet name="studyDesignInterventions" sheetId="14" r:id="rId14"/>
-    <sheet name="studyDesignIndications" sheetId="15" r:id="rId15"/>
-    <sheet name="studyDesignPopulations" sheetId="16" r:id="rId16"/>
-    <sheet name="studyDesignOE" sheetId="17" r:id="rId17"/>
-    <sheet name="studyDesignEstimands" sheetId="18" r:id="rId18"/>
-    <sheet name="studyDesignProcedures" sheetId="19" r:id="rId19"/>
-    <sheet name="studyDesignEncounters" sheetId="20" r:id="rId20"/>
-    <sheet name="studyDesignElements" sheetId="21" r:id="rId21"/>
-    <sheet name="dictionaries" sheetId="22" r:id="rId22"/>
-    <sheet name="studyDesignContent" sheetId="23" r:id="rId23"/>
-    <sheet name="configuration" sheetId="24" r:id="rId24"/>
-    <sheet name="documentContent" sheetId="25" r:id="rId25"/>
-    <sheet name="document" sheetId="26" r:id="rId26"/>
-    <sheet name="documentContent1" sheetId="27" r:id="rId27"/>
-    <sheet name="document1" sheetId="28" r:id="rId28"/>
+    <sheet name="studyOrganizations" sheetId="29" r:id="rId3"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="5" r:id="rId6"/>
+    <sheet name="studyDesignArms" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignEpochs" sheetId="7" r:id="rId8"/>
+    <sheet name="mainTimeline" sheetId="8" r:id="rId9"/>
+    <sheet name="adverseEventTimeline" sheetId="9" r:id="rId10"/>
+    <sheet name="earlyTerminationTimeline" sheetId="10" r:id="rId11"/>
+    <sheet name="vsBloodPressure" sheetId="11" r:id="rId12"/>
+    <sheet name="studyDesignTiming" sheetId="12" r:id="rId13"/>
+    <sheet name="studyDesignActivities" sheetId="13" r:id="rId14"/>
+    <sheet name="studyDesignInterventions" sheetId="14" r:id="rId15"/>
+    <sheet name="studyDesignIndications" sheetId="15" r:id="rId16"/>
+    <sheet name="studyDesignPopulations" sheetId="16" r:id="rId17"/>
+    <sheet name="studyDesignOE" sheetId="17" r:id="rId18"/>
+    <sheet name="studyDesignEstimands" sheetId="18" r:id="rId19"/>
+    <sheet name="studyDesignProcedures" sheetId="19" r:id="rId20"/>
+    <sheet name="studyDesignEncounters" sheetId="20" r:id="rId21"/>
+    <sheet name="studyDesignElements" sheetId="21" r:id="rId22"/>
+    <sheet name="dictionaries" sheetId="22" r:id="rId23"/>
+    <sheet name="studyDesignContent" sheetId="23" r:id="rId24"/>
+    <sheet name="configuration" sheetId="24" r:id="rId25"/>
+    <sheet name="documentContent" sheetId="25" r:id="rId26"/>
+    <sheet name="document" sheetId="26" r:id="rId27"/>
+    <sheet name="documentContent1" sheetId="27" r:id="rId28"/>
+    <sheet name="document1" sheetId="28" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1107">
   <si>
     <t>name</t>
   </si>
@@ -3385,6 +3386,12 @@
   </si>
   <si>
     <t>NC_138</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>organization</t>
   </si>
 </sst>
 </file>
@@ -4178,6 +4185,293 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -4603,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -4935,7 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -5589,7 +5883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -5835,7 +6129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -6049,7 +6343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6112,7 +6406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -6187,7 +6481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -6599,7 +6893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -6641,97 +6935,6 @@
       </c>
       <c r="H1" s="12" t="s">
         <v>472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="24" style="20" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="31" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6804,6 +7007,97 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="24" style="20" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -7113,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7257,7 +7551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7377,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
@@ -8618,7 +8912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8667,7 +8961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -9412,7 +9706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
@@ -12186,7 +12480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -12931,7 +13225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
@@ -15704,20 +15998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F07A62-AF0D-7546-9A1D-26A9FC5597ED}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="1" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
@@ -15728,16 +16022,19 @@
         <v>55</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -15745,19 +16042,22 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -15765,17 +16065,20 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15784,6 +16087,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -16024,7 +16373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -16148,7 +16497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -16250,7 +16599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -16355,11 +16704,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -18896,291 +19245,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/timing_check.xlsx
+++ b/tests/integration_test_files/timing_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C0F22-335D-8045-AE23-B9840317E6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78164D10-F2F0-5640-A848-A31218DEEE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52520" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52520" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1109">
   <si>
     <t>name</t>
   </si>
@@ -3395,6 +3395,9 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
   </si>
 </sst>
 </file>
@@ -6942,59 +6945,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16133,7 +16150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
